--- a/Excel2Pdf/Templete/templete2.xlsx
+++ b/Excel2Pdf/Templete/templete2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15180" windowHeight="7950"/>
+    <workbookView windowWidth="19770" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,18 +16,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
-    <t>山西省农村土地承包经营权调查成果面积精度检查表</t>
+    <t>承包地块面积精度检查表</t>
   </si>
   <si>
-    <t xml:space="preserve"> 县级行政区名称：                        发包方名称或编码：                        </t>
+    <t>承包方代码：</t>
+  </si>
+  <si>
+    <t>承包方代表：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地块编码：  </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地块名称：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
   </si>
   <si>
     <t>序号</t>
-  </si>
-  <si>
-    <t>地块编码</t>
   </si>
   <si>
     <r>
@@ -136,7 +159,10 @@
 </t>
   </si>
   <si>
-    <t>检查员：                                    检查日期：      年   月   日</t>
+    <t>检查员：</t>
+  </si>
+  <si>
+    <t>检查日期：</t>
   </si>
 </sst>
 </file>
@@ -150,7 +176,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,12 +199,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <vertAlign val="superscript"/>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
@@ -193,25 +213,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,10 +229,108 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,15 +342,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,84 +360,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -346,13 +378,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,139 +498,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,35 +546,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -567,9 +608,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -578,7 +617,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -608,11 +649,59 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,30 +723,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -667,17 +732,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,15 +764,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -722,10 +772,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,137 +784,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -875,26 +925,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -904,32 +951,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1279,24 +1338,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="A4:F4"/>
+      <selection activeCell="D29" sqref="D29:F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="13.3333333333333" defaultRowHeight="22.5" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="7.20833333333333" customWidth="1"/>
-    <col min="2" max="2" width="19.6166666666667" customWidth="1"/>
-    <col min="3" max="3" width="9.41666666666667" customWidth="1"/>
-    <col min="4" max="4" width="10.7666666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="9.70833333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.0916666666667" customWidth="1"/>
+    <col min="1" max="1" width="9.41666666666667" customWidth="1"/>
+    <col min="2" max="2" width="13.45" customWidth="1"/>
+    <col min="3" max="3" width="14.775" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.4333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
+    <row r="1" ht="44.4" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1305,319 +1362,273 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:7">
+    </row>
+    <row r="2" ht="25.2" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:7">
+    </row>
+    <row r="3" ht="27" customHeight="1" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="4"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:7">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:7">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:7">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:7">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:7">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:7">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:7">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:7">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:7">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:7">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:7">
-      <c r="A20" s="8"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:7">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:7">
-      <c r="A22" s="8"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:7">
-      <c r="A23" s="8"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:7">
-      <c r="A24" s="8"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:7">
-      <c r="A25" s="8"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:7">
-      <c r="A26" s="8"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" customHeight="1" spans="1:7">
-      <c r="A27" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" customHeight="1" spans="1:7">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:7">
-      <c r="A29" s="19" t="s">
+      <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-    </row>
-    <row r="30" customHeight="1" spans="1:7">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-    </row>
-    <row r="31" ht="29.45" customHeight="1" spans="1:7">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:7">
-      <c r="A32" s="20" t="s">
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:6">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:6">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:6">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:6">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:6">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:6">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:6">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:6">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:6">
+      <c r="A21" s="8"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:6">
+      <c r="A22" s="8"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:6">
+      <c r="A23" s="8"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:6">
+      <c r="A24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:6">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:6">
+      <c r="A26" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:6">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" ht="29.4" customHeight="1" spans="1:6">
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:6">
+      <c r="A29" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:G28"/>
-    <mergeCell ref="A29:G31"/>
+  <mergeCells count="10">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:F25"/>
+    <mergeCell ref="A26:F28"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
